--- a/data/Supplemental File 6_scRNAseq DE Ciliome in Epithelia and Mesenchyme.xlsx
+++ b/data/Supplemental File 6_scRNAseq DE Ciliome in Epithelia and Mesenchyme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelseytroyer/Dropbox/CILIARY HETERO DRAFT 9.16.20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelseytroyer/Dropbox/Dev Cell-Resource-CiliaHet-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6E84D7-C0EB-A640-9E26-CEC15DABAB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ADA2E3B-8474-8144-9E59-14B34955B0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{314AEE33-28FC-4126-B3AD-2CD2F36E5DF4}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="19420" windowHeight="14100" xr2:uid="{314AEE33-28FC-4126-B3AD-2CD2F36E5DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="212">
   <si>
     <t>SysCilia-X denotes confirmed, Y denotes potential ciliary gene</t>
   </si>
@@ -57,12 +61,6 @@
     <t>Ciliogenesis</t>
   </si>
   <si>
-    <t>ENSG00000145730</t>
-  </si>
-  <si>
-    <t>PAM</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -348,9 +346,6 @@
     <t>ADAMTS16</t>
   </si>
   <si>
-    <t>ANXA1</t>
-  </si>
-  <si>
     <t>ATAT1</t>
   </si>
   <si>
@@ -486,9 +481,6 @@
     <t>USH1C</t>
   </si>
   <si>
-    <t>97 DE Custom Ciliome expressed in scRNA-seq epithelia and mesenchyme clusters</t>
-  </si>
-  <si>
     <t>siRNA-X denotes validated ciliary gene published by Wheway et al., 2015</t>
   </si>
   <si>
@@ -507,9 +499,6 @@
     <t>ENSG00000145536</t>
   </si>
   <si>
-    <t>ENSG00000135046</t>
-  </si>
-  <si>
     <t>ENSG00000137343</t>
   </si>
   <si>
@@ -673,6 +662,15 @@
   </si>
   <si>
     <t>Gene symbol- yellow denotes motile ciliome</t>
+  </si>
+  <si>
+    <t>ENSG00000124406</t>
+  </si>
+  <si>
+    <t>ATP8A1</t>
+  </si>
+  <si>
+    <t>96 DE Custom Ciliome expressed in scRNA-seq epithelia and mesenchyme clusters</t>
   </si>
 </sst>
 </file>
@@ -743,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -751,6 +749,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B79ED00-224D-4E61-B78F-5525C83816FB}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1082,42 +1083,42 @@
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1131,30 +1132,30 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E9" s="1">
         <v>4135</v>
@@ -1163,24 +1164,24 @@
         <v>-4.1807989919999997</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E10" s="1">
         <v>1117</v>
@@ -1189,24 +1190,24 @@
         <v>-1.3433139519999999</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E11" s="1">
         <v>7969</v>
@@ -1215,47 +1216,47 @@
         <v>-5.9162294119999999</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>139</v>
@@ -1264,110 +1265,107 @@
         <v>4.0736434969999999</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1093</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-1.3003568590000001</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>208</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="E15" s="1">
+        <v>870</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.70641118000000003</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="1">
-        <v>870</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-0.70641118000000003</v>
+        <v>210</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E18" s="1">
         <v>14160</v>
@@ -1376,47 +1374,47 @@
         <v>-7.2917385469999996</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E20" s="1">
         <v>157</v>
@@ -1425,24 +1423,24 @@
         <v>3.9160224069999998</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1">
         <v>178</v>
@@ -1453,36 +1451,36 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E23" s="1">
         <v>70</v>
@@ -1491,24 +1489,24 @@
         <v>5.3519744029999998</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E24" s="1">
         <v>3983</v>
@@ -1517,142 +1515,142 @@
         <v>-4.139036516</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E30" s="1">
         <v>381</v>
@@ -1661,73 +1659,73 @@
         <v>1.55010018</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E33" s="1">
         <v>2283</v>
@@ -1736,24 +1734,24 @@
         <v>-2.830042529</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E34" s="1">
         <v>190</v>
@@ -1762,24 +1760,24 @@
         <v>3.4569140819999999</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1">
         <v>210</v>
@@ -1788,21 +1786,21 @@
         <v>2.9430950829999998</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E36" s="1">
         <v>2659</v>
@@ -1811,41 +1809,41 @@
         <v>-3.2404414610000001</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1">
         <v>245</v>
@@ -1854,21 +1852,21 @@
         <v>2.553597624</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E39" s="1">
         <v>118</v>
@@ -1877,21 +1875,21 @@
         <v>4.3484769590000001</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1">
         <v>231</v>
@@ -1900,18 +1898,18 @@
         <v>2.6565992540000001</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" s="1">
         <v>88</v>
@@ -1920,21 +1918,21 @@
         <v>5.0667264330000004</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E42" s="1">
         <v>50</v>
@@ -1943,21 +1941,21 @@
         <v>6.5112165690000001</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1">
         <v>54</v>
@@ -1966,21 +1964,21 @@
         <v>6.4721083080000001</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E44" s="1">
         <v>227</v>
@@ -1989,24 +1987,24 @@
         <v>2.6565992540000001</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E45" s="1">
         <v>119</v>
@@ -2015,64 +2013,64 @@
         <v>4.3484769590000001</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1">
         <v>466</v>
@@ -2081,44 +2079,44 @@
         <v>0.861719919</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E50" s="1">
         <v>20012</v>
@@ -2127,24 +2125,24 @@
         <v>-8.7764495749999991</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E51" s="1">
         <v>15976</v>
@@ -2153,50 +2151,50 @@
         <v>-7.2917385469999996</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E53" s="1">
         <v>2073</v>
@@ -2205,41 +2203,41 @@
         <v>-2.6437276870000002</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55" s="1">
         <v>142</v>
@@ -2248,18 +2246,18 @@
         <v>4.0632289879999997</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E56" s="1">
         <v>60</v>
@@ -2268,21 +2266,21 @@
         <v>6.0396537559999999</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E57" s="1">
         <v>188</v>
@@ -2291,24 +2289,24 @@
         <v>3.46682245</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E58" s="1">
         <v>301</v>
@@ -2317,76 +2315,76 @@
         <v>2.0163414899999998</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E61" s="1">
         <v>172</v>
@@ -2395,21 +2393,21 @@
         <v>3.6737315289999999</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E62" s="1">
         <v>62</v>
@@ -2418,67 +2416,67 @@
         <v>5.9733244140000004</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E65" s="1">
         <v>39</v>
@@ -2487,323 +2485,326 @@
         <v>7.0431511999999996</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>31</v>
+        <v>132</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>39</v>
+        <v>133</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="E69" s="1">
+        <v>223</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2.7399124659999998</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E70" s="1">
-        <v>223</v>
-      </c>
-      <c r="F70" s="1">
-        <v>2.7399124659999998</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>208</v>
+        <v>19</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="1">
+        <v>6762</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-5.2389218489999996</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E73" s="1">
-        <v>6762</v>
-      </c>
-      <c r="F73" s="1">
-        <v>-5.2389218489999996</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>208</v>
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>84</v>
+        <v>135</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>209</v>
+        <v>8</v>
+      </c>
+      <c r="E75" s="1">
+        <v>240</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2.6181538249999998</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="1">
-        <v>240</v>
-      </c>
-      <c r="F76" s="1">
-        <v>2.6181538249999998</v>
+        <v>203</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>208</v>
+        <v>19</v>
+      </c>
+      <c r="E79" s="1">
+        <v>55</v>
+      </c>
+      <c r="F79" s="1">
+        <v>6.4721083080000001</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2814,433 +2815,433 @@
         <v>70</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E80" s="1">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F80" s="1">
-        <v>6.4721083080000001</v>
+        <v>5.0667264330000004</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>191</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="E81" s="1">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="F81" s="1">
-        <v>5.0667264330000004</v>
+        <v>3.653482957</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E82" s="1">
-        <v>177</v>
+        <v>21036</v>
       </c>
       <c r="F82" s="1">
-        <v>3.653482957</v>
+        <v>-8.7764495749999991</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E83" s="1">
-        <v>21036</v>
-      </c>
-      <c r="F83" s="1">
-        <v>-8.7764495749999991</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>208</v>
+        <v>19</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>142</v>
+        <v>30</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>209</v>
+        <v>19</v>
+      </c>
+      <c r="E85" s="1">
+        <v>149</v>
+      </c>
+      <c r="F85" s="1">
+        <v>3.9160224069999998</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>33</v>
+        <v>194</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="E86" s="1">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F86" s="1">
-        <v>3.9160224069999998</v>
+        <v>4.4703198940000002</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E87" s="1">
-        <v>117</v>
-      </c>
-      <c r="F87" s="1">
-        <v>4.4703198940000002</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>208</v>
+        <v>8</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>208</v>
+        <v>141</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1">
+        <v>16294</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="E90" s="1">
-        <v>16294</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>208</v>
+        <v>331</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1.939597639</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="E91" s="1">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="F91" s="1">
-        <v>1.939597639</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>208</v>
+        <v>2.553597624</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="E92" s="1">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="F92" s="1">
-        <v>2.553597624</v>
+        <v>4.3484769590000001</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="E93" s="1">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="F93" s="1">
-        <v>4.3484769590000001</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>208</v>
+        <v>3.368234986</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="1">
-        <v>191</v>
-      </c>
-      <c r="F94" s="1">
-        <v>3.368234986</v>
+        <v>19</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>45</v>
+        <v>199</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="1">
+        <v>104</v>
+      </c>
+      <c r="F95" s="1">
+        <v>4.6772289730000001</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="E96" s="1">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="F96" s="1">
-        <v>4.6772289730000001</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>208</v>
+        <v>3.1364753950000002</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E97" s="1">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="F97" s="1">
-        <v>3.1364753950000002</v>
+        <v>5.9700428900000002</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E98" s="1">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="F98" s="1">
-        <v>5.9700428900000002</v>
+        <v>2.1720157699999998</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3251,160 +3252,137 @@
         <v>55</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E99" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F99" s="1">
         <v>2.1720157699999998</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" s="1">
-        <v>285</v>
-      </c>
-      <c r="F100" s="1">
-        <v>2.1720157699999998</v>
+        <v>8</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>25</v>
+        <v>200</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E101" s="1">
+        <v>159</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3.9160224069999998</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>201</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E102" s="1">
-        <v>159</v>
-      </c>
-      <c r="F102" s="1">
-        <v>3.9160224069999998</v>
+        <v>19</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/Supplemental File 6_scRNAseq DE Ciliome in Epithelia and Mesenchyme.xlsx
+++ b/data/Supplemental File 6_scRNAseq DE Ciliome in Epithelia and Mesenchyme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelseytroyer/Dropbox/Dev Cell-Resource-CiliaHet-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Konrad\Shiny_Sam\Ciliome_Gene_Expression\data_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ADA2E3B-8474-8144-9E59-14B34955B0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BB1DC2-CCB5-4D7B-9C1B-968E51B47EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="19420" windowHeight="14100" xr2:uid="{314AEE33-28FC-4126-B3AD-2CD2F36E5DF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{314AEE33-28FC-4126-B3AD-2CD2F36E5DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="213">
   <si>
     <t>SysCilia-X denotes confirmed, Y denotes potential ciliary gene</t>
   </si>
@@ -671,13 +671,16 @@
   </si>
   <si>
     <t>96 DE Custom Ciliome expressed in scRNA-seq epithelia and mesenchyme clusters</t>
+  </si>
+  <si>
+    <t>colors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +710,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -741,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -751,6 +762,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,57 +1082,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B79ED00-224D-4E61-B78F-5525C83816FB}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="H8" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>151</v>
       </c>
@@ -1169,8 +1186,11 @@
       <c r="H9" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>152</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="H10" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>153</v>
       </c>
@@ -1221,8 +1244,11 @@
       <c r="H11" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1244,8 +1270,11 @@
       <c r="H12" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1267,8 +1296,11 @@
       <c r="H13" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1287,8 +1319,11 @@
       <c r="H14" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>154</v>
       </c>
@@ -1310,8 +1345,11 @@
       <c r="H15" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>209</v>
       </c>
@@ -1332,9 +1370,11 @@
       <c r="H16" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
@@ -1353,8 +1393,11 @@
       <c r="H17" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
@@ -1379,8 +1422,11 @@
       <c r="H18" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1402,8 +1448,11 @@
       <c r="H19" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>156</v>
       </c>
@@ -1428,8 +1477,11 @@
       <c r="H20" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1448,8 +1500,11 @@
       <c r="F21" s="1">
         <v>3.653482957</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>77</v>
       </c>
@@ -1468,8 +1523,11 @@
       <c r="H22" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>157</v>
       </c>
@@ -1494,8 +1552,11 @@
       <c r="H23" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>158</v>
       </c>
@@ -1520,8 +1581,11 @@
       <c r="H24" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>159</v>
       </c>
@@ -1546,8 +1610,11 @@
       <c r="H25" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
@@ -1572,8 +1639,11 @@
       <c r="H26" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>161</v>
       </c>
@@ -1598,8 +1668,11 @@
       <c r="H27" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>162</v>
       </c>
@@ -1618,8 +1691,11 @@
       <c r="H28" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -1638,8 +1714,11 @@
       <c r="H29" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>163</v>
       </c>
@@ -1664,8 +1743,11 @@
       <c r="H30" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>164</v>
       </c>
@@ -1690,8 +1772,11 @@
       <c r="H31" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -1713,8 +1798,11 @@
       <c r="H32" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>165</v>
       </c>
@@ -1739,8 +1827,11 @@
       <c r="H33" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>166</v>
       </c>
@@ -1765,8 +1856,11 @@
       <c r="H34" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,8 +1882,11 @@
       <c r="H35" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>167</v>
       </c>
@@ -1814,8 +1911,11 @@
       <c r="H36" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -1834,8 +1934,11 @@
       <c r="H37" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
@@ -1854,8 +1957,11 @@
       <c r="H38" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>168</v>
       </c>
@@ -1880,8 +1986,11 @@
       <c r="H39" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -1900,8 +2009,11 @@
       <c r="H40" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -1920,8 +2032,11 @@
       <c r="H41" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>170</v>
       </c>
@@ -1946,8 +2061,11 @@
       <c r="H42" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1966,8 +2084,11 @@
       <c r="H43" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
@@ -1992,8 +2113,11 @@
       <c r="H44" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -2018,8 +2142,11 @@
       <c r="H45" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
@@ -2038,8 +2165,11 @@
       <c r="H46" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>173</v>
       </c>
@@ -2058,8 +2188,11 @@
       <c r="H47" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>174</v>
       </c>
@@ -2084,8 +2217,11 @@
       <c r="H48" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -2104,8 +2240,11 @@
       <c r="H49" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>175</v>
       </c>
@@ -2130,8 +2269,11 @@
       <c r="H50" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>176</v>
       </c>
@@ -2156,8 +2298,11 @@
       <c r="H51" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>177</v>
       </c>
@@ -2182,8 +2327,11 @@
       <c r="H52" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>178</v>
       </c>
@@ -2208,8 +2356,11 @@
       <c r="H53" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -2228,8 +2379,11 @@
       <c r="H54" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>179</v>
       </c>
@@ -2248,8 +2402,11 @@
       <c r="H55" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -2268,8 +2425,11 @@
       <c r="H56" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>180</v>
       </c>
@@ -2294,8 +2454,11 @@
       <c r="H57" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>181</v>
       </c>
@@ -2320,8 +2483,11 @@
       <c r="H58" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -2346,8 +2512,11 @@
       <c r="H59" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>183</v>
       </c>
@@ -2372,8 +2541,11 @@
       <c r="H60" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -2398,8 +2570,11 @@
       <c r="H61" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -2418,8 +2593,11 @@
       <c r="H62" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -2438,8 +2616,11 @@
       <c r="H63" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>185</v>
       </c>
@@ -2464,8 +2645,11 @@
       <c r="H64" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -2487,8 +2671,11 @@
       <c r="H65" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
@@ -2507,8 +2694,11 @@
       <c r="H66" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
@@ -2533,8 +2723,11 @@
       <c r="H67" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
@@ -2553,8 +2746,11 @@
       <c r="H68" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>187</v>
       </c>
@@ -2579,8 +2775,11 @@
       <c r="H69" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -2602,8 +2801,11 @@
       <c r="H70" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -2622,8 +2824,11 @@
       <c r="H71" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>188</v>
       </c>
@@ -2648,8 +2853,11 @@
       <c r="H72" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -2668,8 +2876,11 @@
       <c r="H73" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>189</v>
       </c>
@@ -2694,8 +2905,11 @@
       <c r="H74" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>50</v>
       </c>
@@ -2714,8 +2928,11 @@
       <c r="H75" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>190</v>
       </c>
@@ -2740,8 +2957,11 @@
       <c r="H76" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
@@ -2760,8 +2980,11 @@
       <c r="H77" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>92</v>
       </c>
@@ -2783,8 +3006,11 @@
       <c r="H78" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>67</v>
       </c>
@@ -2806,8 +3032,11 @@
       <c r="H79" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
@@ -2829,8 +3058,11 @@
       <c r="H80" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>191</v>
       </c>
@@ -2855,8 +3087,11 @@
       <c r="H81" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>192</v>
       </c>
@@ -2881,8 +3116,11 @@
       <c r="H82" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>20</v>
       </c>
@@ -2904,8 +3142,11 @@
       <c r="H83" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>193</v>
       </c>
@@ -2930,8 +3171,11 @@
       <c r="H84" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>30</v>
       </c>
@@ -2953,8 +3197,11 @@
       <c r="H85" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>194</v>
       </c>
@@ -2979,8 +3226,11 @@
       <c r="H86" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>195</v>
       </c>
@@ -2999,8 +3249,11 @@
       <c r="H87" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -3019,8 +3272,11 @@
       <c r="H88" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>196</v>
       </c>
@@ -3039,8 +3295,11 @@
       <c r="H89" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>197</v>
       </c>
@@ -3065,8 +3324,11 @@
       <c r="H90" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>38</v>
       </c>
@@ -3085,8 +3347,11 @@
       <c r="H91" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>198</v>
       </c>
@@ -3111,8 +3376,11 @@
       <c r="H92" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>32</v>
       </c>
@@ -3131,8 +3399,11 @@
       <c r="H93" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>42</v>
       </c>
@@ -3151,8 +3422,11 @@
       <c r="H94" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>199</v>
       </c>
@@ -3177,8 +3451,11 @@
       <c r="H95" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>26</v>
       </c>
@@ -3197,8 +3474,11 @@
       <c r="H96" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>60</v>
       </c>
@@ -3220,8 +3500,11 @@
       <c r="H97" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>52</v>
       </c>
@@ -3243,8 +3526,11 @@
       <c r="H98" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>54</v>
       </c>
@@ -3266,8 +3552,11 @@
       <c r="H99" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>22</v>
       </c>
@@ -3286,8 +3575,11 @@
       <c r="H100" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -3312,8 +3604,11 @@
       <c r="H101" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>201</v>
       </c>
@@ -3338,8 +3633,11 @@
       <c r="H102" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>202</v>
       </c>
@@ -3364,8 +3662,11 @@
       <c r="H103" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,6 +3684,9 @@
       </c>
       <c r="H104" s="1" t="s">
         <v>203</v>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
